--- a/results/tinybert/dilemma/seed-200/0.1/percents/scores-10.xlsx
+++ b/results/tinybert/dilemma/seed-200/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="95">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -43,184 +43,244 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>unfortunate</t>
+  </si>
+  <si>
+    <t>problematic</t>
+  </si>
+  <si>
+    <t>freaking</t>
+  </si>
+  <si>
+    <t>extreme</t>
+  </si>
+  <si>
+    <t>consuming</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>hated</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>lonely</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>few</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>casually</t>
-  </si>
-  <si>
-    <t>suspicious</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>harder</t>
-  </si>
-  <si>
-    <t>stomach</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>silly</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>0.95-positive</t>
   </si>
   <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>more</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>astonishing</t>
-  </si>
-  <si>
-    <t>delighted</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>social</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -607,25 +667,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AB1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AK1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AT1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="BC1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="BL1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -827,13 +887,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.002750600030017338</v>
+        <v>0.001654792075276843</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -845,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>0.09305300261554816</v>
+        <v>0.03776356978778821</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -869,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.003134610684444239</v>
+        <v>0.001730307310568684</v>
       </c>
       <c r="U3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -893,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC3">
-        <v>0.0675408861323145</v>
+        <v>0.02967885333168533</v>
       </c>
       <c r="AD3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -917,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.003695857025529712</v>
+        <v>0.001840675731379836</v>
       </c>
       <c r="AM3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AN3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -941,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AU3">
-        <v>0.06286762720993186</v>
+        <v>0.02846036498279981</v>
       </c>
       <c r="AV3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -965,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD3">
-        <v>0.004593851171266467</v>
+        <v>0.06046056812333499</v>
       </c>
       <c r="BE3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BF3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -989,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BM3">
-        <v>0.0612064737773407</v>
+        <v>0.02796826507506909</v>
       </c>
       <c r="BN3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BO3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1013,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1021,13 +1081,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.002509951792007109</v>
+        <v>0.001464585435794509</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1039,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.09153692938544701</v>
+        <v>0.03385062599570614</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -1063,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.002755434589137045</v>
+        <v>0.001593070153902137</v>
       </c>
       <c r="U4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1087,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC4">
-        <v>0.06566315490536082</v>
+        <v>0.02887548405934597</v>
       </c>
       <c r="AD4">
         <v>5</v>
@@ -1111,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.003114217138788491</v>
+        <v>0.001780855511136361</v>
       </c>
       <c r="AM4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AN4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1135,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AU4">
-        <v>0.06245955520466888</v>
+        <v>0.02812565535274605</v>
       </c>
       <c r="AV4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -1159,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.003688269218230804</v>
+        <v>0.05868768478374133</v>
       </c>
       <c r="BE4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BF4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1183,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="BM4">
-        <v>0.06090467134615446</v>
+        <v>0.02782282879090887</v>
       </c>
       <c r="BN4">
         <v>5</v>
@@ -1207,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1215,13 +1275,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.00145999275608117</v>
+        <v>0.0008381547414297889</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1233,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>0.08172882864870776</v>
+        <v>0.03368665964986729</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1257,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.001587644344695802</v>
+        <v>0.0009162574982933364</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1281,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC5">
-        <v>0.06544279801149615</v>
+        <v>0.02870367996714166</v>
       </c>
       <c r="AD5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1305,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL5">
-        <v>0.001774212051132572</v>
+        <v>0.001030407681401598</v>
       </c>
       <c r="AM5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1329,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AU5">
-        <v>0.06092364818806266</v>
+        <v>0.02795266999429949</v>
       </c>
       <c r="AV5">
         <v>5</v>
@@ -1353,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD5">
-        <v>0.002072720381431405</v>
+        <v>0.03642612617547281</v>
       </c>
       <c r="BE5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BF5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1377,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BM5">
-        <v>0.05954600577878701</v>
+        <v>0.02773276440624901</v>
       </c>
       <c r="BN5">
         <v>4</v>
@@ -1401,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1409,13 +1469,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001411587865304789</v>
+        <v>0.0008347926464949867</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1427,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.08045213540230678</v>
+        <v>0.03187775746508122</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -1451,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.001357721113507993</v>
+        <v>0.0009002875473530256</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1475,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC6">
-        <v>0.0638615506624825</v>
+        <v>0.02845661901395585</v>
       </c>
       <c r="AD6">
         <v>4</v>
@@ -1499,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL6">
-        <v>0.001381273359920397</v>
+        <v>0.0009960108639916979</v>
       </c>
       <c r="AM6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1523,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AU6">
-        <v>0.06082252023888429</v>
+        <v>0.02794100200187452</v>
       </c>
       <c r="AV6">
         <v>4</v>
@@ -1547,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD6">
-        <v>0.001692189913862002</v>
+        <v>0.03607709925241757</v>
       </c>
       <c r="BE6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1571,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="BM6">
-        <v>0.05893286559787193</v>
+        <v>0.02764936636511131</v>
       </c>
       <c r="BN6">
         <v>5</v>
@@ -1595,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1603,13 +1663,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001053992776823971</v>
+        <v>0.0007688955857728624</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1621,43 +1681,43 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7">
+        <v>0.02959663220427926</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>54</v>
       </c>
-      <c r="K7">
-        <v>0.07945471880355602</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>71</v>
-      </c>
       <c r="S7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T7">
-        <v>0.001186950513706894</v>
+        <v>0.0007598564004984159</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1669,43 +1729,43 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC7">
+        <v>0.02771476227522164</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>54</v>
       </c>
-      <c r="AC7">
-        <v>0.06262620117106561</v>
-      </c>
-      <c r="AD7">
-        <v>4</v>
-      </c>
-      <c r="AE7">
-        <v>4</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>71</v>
-      </c>
       <c r="AK7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL7">
-        <v>0.00127899278395883</v>
+        <v>0.0009293112802662434</v>
       </c>
       <c r="AM7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1717,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AU7">
-        <v>0.05954358667186507</v>
+        <v>0.02745406525638778</v>
       </c>
       <c r="AV7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1741,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.001463604141545999</v>
+        <v>0.0346578676232654</v>
       </c>
       <c r="BE7">
         <v>3</v>
@@ -1765,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BM7">
-        <v>0.05886190533583199</v>
+        <v>0.02743468118738693</v>
       </c>
       <c r="BN7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1789,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1797,13 +1857,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0008489759167463553</v>
+        <v>0.000643913588025692</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1815,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.0683699248204158</v>
+        <v>0.02782052328866097</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1839,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T8">
-        <v>0.0009770234635796144</v>
+        <v>0.0007438864495581052</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1863,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC8">
-        <v>0.06082459692818733</v>
+        <v>0.02750206214047669</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1887,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL8">
-        <v>0.00116416987818207</v>
+        <v>0.0008949144628563433</v>
       </c>
       <c r="AM8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -1911,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AT8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AU8">
-        <v>0.0594424587226867</v>
+        <v>0.02744714584204992</v>
       </c>
       <c r="AV8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -1935,19 +1995,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD8">
-        <v>0.001450830628702232</v>
+        <v>0.03430884070021016</v>
       </c>
       <c r="BE8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -1959,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BM8">
-        <v>0.05824876515491693</v>
+        <v>0.02742774269035504</v>
       </c>
       <c r="BN8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BO8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -1983,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -1991,182 +2051,182 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0008483036265966835</v>
+        <v>0.0006405514930908898</v>
       </c>
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9">
+        <v>0.02781396463482741</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9">
+        <v>0.000740692459370043</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC9">
+        <v>0.02749518997678852</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>6</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL9">
+        <v>0.0008880350993743634</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>7</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU9">
+        <v>0.02743113617712344</v>
+      </c>
+      <c r="AV9">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="AW9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9">
-        <v>0.05624781757457477</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T9">
-        <v>0.0009738300853686727</v>
-      </c>
-      <c r="U9">
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>54</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD9">
+        <v>0.03395518898976867</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
+      </c>
+      <c r="BF9">
+        <v>2</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>7</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM9">
+        <v>0.02731659066108973</v>
+      </c>
+      <c r="BN9">
         <v>3</v>
       </c>
-      <c r="V9">
+      <c r="BO9">
         <v>3</v>
       </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>13</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC9">
-        <v>0.05773822921423545</v>
-      </c>
-      <c r="AD9">
-        <v>2</v>
-      </c>
-      <c r="AE9">
-        <v>2</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>9</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL9">
-        <v>0.001157291832804657</v>
-      </c>
-      <c r="AM9">
-        <v>3</v>
-      </c>
-      <c r="AN9">
-        <v>3</v>
-      </c>
-      <c r="AO9">
-        <v>1</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>13</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU9">
-        <v>0.05801123986380836</v>
-      </c>
-      <c r="AV9">
-        <v>2</v>
-      </c>
-      <c r="AW9">
-        <v>2</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="AZ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>9</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD9">
-        <v>0.001153027456680169</v>
-      </c>
-      <c r="BE9">
-        <v>6</v>
-      </c>
-      <c r="BF9">
-        <v>6</v>
-      </c>
-      <c r="BG9">
-        <v>1</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>132</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM9">
-        <v>0.05812591526792218</v>
-      </c>
-      <c r="BN9">
-        <v>2</v>
-      </c>
-      <c r="BO9">
-        <v>2</v>
-      </c>
       <c r="BP9">
         <v>0</v>
       </c>
@@ -2177,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2185,7 +2245,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.0006311855438249729</v>
+        <v>0.0006398790741039294</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2203,37 +2263,37 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>0.02762376367365435</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>35</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10">
-        <v>0.04376664035318348</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="T10">
-        <v>0.0007064222274444411</v>
+        <v>0.000737498469181981</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2251,37 +2311,37 @@
         <v>0</v>
       </c>
       <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10">
+        <v>0.02729589722983153</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>35</v>
+      </c>
+      <c r="AK10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC10">
-        <v>0.0542071356833735</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
-      <c r="AH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="AL10">
-        <v>0.0008163835342728946</v>
+        <v>0.0008811557358923834</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2299,37 +2359,37 @@
         <v>0</v>
       </c>
       <c r="AR10">
+        <v>8</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU10">
+        <v>0.02724648282625191</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>2</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>35</v>
+      </c>
+      <c r="BC10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU10">
-        <v>0.05611960492080309</v>
-      </c>
-      <c r="AV10">
-        <v>1</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="BD10">
-        <v>0.0009923216251984204</v>
+        <v>0.03360153727932719</v>
       </c>
       <c r="BE10">
         <v>2</v>
@@ -2347,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="BM10">
-        <v>0.05692291857541914</v>
+        <v>0.02724747784428044</v>
       </c>
       <c r="BN10">
         <v>1</v>
@@ -2379,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0006264795127772693</v>
+        <v>0.0006392066551169687</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2397,19 +2457,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.04376664035318348</v>
+        <v>0.02755161848148526</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2421,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T11">
-        <v>0.0006840685799678486</v>
+        <v>0.0007343044789939188</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2445,19 +2505,19 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC11">
-        <v>0.0542071356833735</v>
+        <v>0.02722030342926163</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2469,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL11">
-        <v>0.000768237216631003</v>
+        <v>0.0008742763724104034</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2493,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU11">
-        <v>0.05611960492080309</v>
+        <v>0.02717254010478617</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -2520,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD11">
-        <v>0.0009029070352920503</v>
+        <v>0.0332478855688857</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2541,13 +2601,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BM11">
-        <v>0.05692291857541914</v>
+        <v>0.02724747784428044</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2573,7 +2633,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0006170674506818618</v>
+        <v>0.0006385342361300083</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2591,19 +2651,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.04372674368923344</v>
+        <v>0.02747291463548261</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2615,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T12">
-        <v>0.0006393612850146636</v>
+        <v>0.0007279164986177946</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2639,19 +2699,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC12">
-        <v>0.05415772170371682</v>
+        <v>0.02713783746500357</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2663,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL12">
-        <v>0.0006719445813472199</v>
+        <v>0.0008605176454464434</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2687,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AU12">
-        <v>0.05606844757812231</v>
+        <v>0.02717254010478617</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2711,19 +2771,19 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD12">
-        <v>0.0008020563914137191</v>
+        <v>0.03254058214800274</v>
       </c>
       <c r="BE12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -2735,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BM12">
-        <v>0.05687102895046434</v>
+        <v>0.02724053934724853</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2767,7 +2827,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0006123614196341582</v>
+        <v>0.0006371893981560874</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2785,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.04364695036133338</v>
+        <v>0.02744668002014839</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2809,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T13">
-        <v>0.000617007637538071</v>
+        <v>0.0007215285182416702</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2833,19 +2893,19 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC13">
-        <v>0.05405889374440347</v>
+        <v>0.02711034881025088</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2857,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL13">
-        <v>0.0006237982637053283</v>
+        <v>0.0008467589184824835</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2881,19 +2941,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AU13">
-        <v>0.05596613289276078</v>
+        <v>0.02717036926853542</v>
       </c>
       <c r="AV13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -2905,19 +2965,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD13">
-        <v>0.0008020563914137191</v>
+        <v>0.03183327872711977</v>
       </c>
       <c r="BE13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG13">
         <v>1</v>
@@ -2929,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BM13">
-        <v>0.05676724970055473</v>
+        <v>0.02723360085021663</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2953,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2961,7 +3021,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0005915204249943275</v>
+        <v>0.0006358445601821665</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2979,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.04348736370553326</v>
+        <v>0.0257558336043663</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3003,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T14">
-        <v>0.0005180129129988755</v>
+        <v>0.0007183345280536081</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -3027,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC14">
-        <v>0.05386123782577677</v>
+        <v>0.02698698680345217</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3051,19 +3111,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL14">
-        <v>0.0006199141886668071</v>
+        <v>0.0008398795550005033</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO14">
         <v>1</v>
@@ -3075,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU14">
-        <v>0.05576150352203771</v>
+        <v>0.02716562069044831</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3099,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD14">
-        <v>0.0007892828785699519</v>
+        <v>0.03147962701667829</v>
       </c>
       <c r="BE14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG14">
         <v>1</v>
@@ -3123,19 +3183,19 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="BM14">
-        <v>0.05655969120073552</v>
+        <v>0.02722652627642987</v>
       </c>
       <c r="BN14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP14">
         <v>0</v>
@@ -3147,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3155,13 +3215,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0004281855541963735</v>
+        <v>0.0006351721411952061</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3173,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.04308839706603296</v>
+        <v>0.0257558336043663</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3197,37 +3257,37 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15">
+        <v>0.0007087525574894216</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>17</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T15">
-        <v>0.000506075311949987</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
       <c r="AB15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC15">
-        <v>0.05336709802921001</v>
+        <v>0.02698698680345217</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3245,19 +3305,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL15">
-        <v>0.0006199141886668071</v>
+        <v>0.0008192414645545635</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -3269,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU15">
-        <v>0.05524993009523002</v>
+        <v>0.02715870127611044</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3293,37 +3353,37 @@
         <v>0</v>
       </c>
       <c r="BA15">
+        <v>2</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD15">
+        <v>0.03041867188535383</v>
+      </c>
+      <c r="BE15">
+        <v>2</v>
+      </c>
+      <c r="BF15">
+        <v>2</v>
+      </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
         <v>17</v>
       </c>
-      <c r="BC15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD15">
-        <v>0.0007765093657261848</v>
-      </c>
-      <c r="BE15">
-        <v>1</v>
-      </c>
-      <c r="BF15">
-        <v>1</v>
-      </c>
-      <c r="BG15">
-        <v>1</v>
-      </c>
-      <c r="BH15">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <v>2</v>
-      </c>
       <c r="BL15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BM15">
-        <v>0.05604079495118748</v>
+        <v>0.02721972385615283</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3341,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3349,13 +3409,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0004281855541963735</v>
+        <v>0.0006331548842343248</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3367,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.04272932709048269</v>
+        <v>0.02574927495053274</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3391,19 +3451,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T16">
-        <v>0.000506075311949987</v>
+        <v>0.0006959765967371731</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -3415,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC16">
-        <v>0.05292237221229993</v>
+        <v>0.02698011463976399</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3439,19 +3499,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL16">
-        <v>0.000613036143289394</v>
+        <v>0.0007917240106266435</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>1</v>
@@ -3463,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU16">
-        <v>0.05478951401110311</v>
+        <v>0.02714486244743472</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3487,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD16">
-        <v>0.0007765093657261848</v>
+        <v>0.0290040650435879</v>
       </c>
       <c r="BE16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG16">
         <v>1</v>
@@ -3511,13 +3571,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BM16">
-        <v>0.05557378832659426</v>
+        <v>0.02721972385615283</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3535,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3543,13 +3603,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.0004275132640467015</v>
+        <v>0.000630465208286483</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3561,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17">
-        <v>0.04233036045098238</v>
+        <v>0.02574271629669918</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3585,19 +3645,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T17">
-        <v>0.0005028819337390453</v>
+        <v>0.0006448727537281788</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -3609,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC17">
-        <v>0.05242823241573317</v>
+        <v>0.02697324247607582</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3633,19 +3693,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL17">
-        <v>0.0006061580979119809</v>
+        <v>0.0006816541949149635</v>
       </c>
       <c r="AM17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO17">
         <v>1</v>
@@ -3657,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AU17">
-        <v>0.05427794058429542</v>
+        <v>0.02714486244743472</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3681,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD17">
-        <v>0.0007765093657261848</v>
+        <v>0.02511852101611782</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3705,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BM17">
-        <v>0.05505489207704622</v>
+        <v>0.02721972385615283</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3729,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3737,13 +3797,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0004268409738970296</v>
+        <v>0.0006197065044951157</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3755,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.0414526338440817</v>
+        <v>0.02572959898903208</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3779,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="T18">
-        <v>0.0004996885555281035</v>
+        <v>0.0005872765089229358</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -3803,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC18">
-        <v>0.0513411248632863</v>
+        <v>0.02695949814869948</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3827,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL18">
-        <v>0.0006061580979119809</v>
+        <v>0.0006218339746714889</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3851,13 +3911,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AU18">
-        <v>0.05315247904531851</v>
+        <v>0.02714486244743472</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3875,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD18">
-        <v>0.0007765093657261848</v>
+        <v>0.02476486930567634</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3899,13 +3959,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BM18">
-        <v>0.05391332032804055</v>
+        <v>0.02720584686208902</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3923,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3931,13 +3991,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0004268409738970296</v>
+        <v>0.0006015511918471835</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3949,13 +4009,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.03271526443902503</v>
+        <v>0.02572959898903208</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3973,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>277</v>
+        <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19">
-        <v>0.0004996885555281035</v>
+        <v>0.000558635018650501</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -3997,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC19">
-        <v>0.04051946331847427</v>
+        <v>0.02695949814869948</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4021,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>277</v>
+        <v>4</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL19">
-        <v>0.0006061580979119809</v>
+        <v>0.0006149546111895089</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4045,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AU19">
-        <v>0.0419490209982302</v>
+        <v>0.027131023618759</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4069,13 +4129,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>277</v>
+        <v>6</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD19">
-        <v>0.0007637358528824176</v>
+        <v>0.02476486930567634</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4093,13 +4153,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BM19">
-        <v>0.04254949246293865</v>
+        <v>0.02715727738286571</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4117,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>277</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4125,7 +4185,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0004268409738970296</v>
+        <v>0.0004294998650127815</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4143,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.02844632139637175</v>
+        <v>0.02572959898903208</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4167,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>384</v>
+        <v>4</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T20">
-        <v>0.0004996885555281035</v>
+        <v>0.0005076355970616314</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4191,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC20">
-        <v>0.03523216749520994</v>
+        <v>0.02695949814869948</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4215,13 +4275,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>384</v>
+        <v>4</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL20">
-        <v>0.0006061580979119809</v>
+        <v>0.0006149546111895089</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4239,19 +4299,19 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AU20">
-        <v>0.03647518533138797</v>
+        <v>0.02708733629648107</v>
       </c>
       <c r="AV20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX20">
         <v>0</v>
@@ -4263,13 +4323,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>384</v>
+        <v>58</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD20">
-        <v>0.0007509623400386504</v>
+        <v>0.02476486930567634</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4287,19 +4347,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="BM20">
-        <v>0.0369973025927747</v>
+        <v>0.02715020280907894</v>
       </c>
       <c r="BN20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP20">
         <v>0</v>
@@ -4311,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>384</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4319,7 +4379,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0004268409738970296</v>
+        <v>0.000428827446025821</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4337,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.02571648168136497</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4361,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1097</v>
+        <v>6</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T21">
-        <v>0.0004996885555281035</v>
+        <v>0.0005044416068735692</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4385,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>0.02694575382132313</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4409,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>1097</v>
+        <v>6</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL21">
-        <v>0.0005992800525345678</v>
+        <v>0.0006149546111895089</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4433,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>0.02708258771839396</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4457,13 +4517,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>1097</v>
+        <v>13</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD21">
-        <v>0.0007381888271948833</v>
+        <v>0.02476486930567634</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4481,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BM21">
-        <v>0</v>
+        <v>0.02714340038880191</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4505,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>1097</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4513,7 +4573,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0004261686837473576</v>
+        <v>0.000428827446025821</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4531,13 +4591,37 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22">
+        <v>0.02567057110453009</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T22">
-        <v>0.0004964951773171617</v>
+        <v>0.0005044416068735692</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4555,13 +4639,37 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC22">
+        <v>0.02689764867550593</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>13</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL22">
-        <v>0.0005924020071571548</v>
+        <v>0.0006149546111895089</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4579,19 +4687,43 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU22">
+        <v>0.02706874888971823</v>
+      </c>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>15</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="BD22">
-        <v>0.0007240778554793101</v>
+        <v>0.02441121759523485</v>
       </c>
       <c r="BE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG22">
         <v>1</v>
@@ -4603,7 +4735,31 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="BL22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM22">
+        <v>0.0271295233947381</v>
+      </c>
+      <c r="BN22">
+        <v>1</v>
+      </c>
+      <c r="BO22">
+        <v>1</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>1</v>
+      </c>
+      <c r="BR22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4611,7 +4767,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0004254963935976856</v>
+        <v>0.000428827446025821</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4629,13 +4785,37 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23">
+        <v>0.02565745379686299</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T23">
-        <v>0.0004933017991062199</v>
+        <v>0.0005044416068735692</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4653,13 +4833,37 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC23">
+        <v>0.02688390434812958</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>15</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL23">
-        <v>0.0005855239617797417</v>
+        <v>0.000608075247707529</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4677,13 +4881,37 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU23">
+        <v>0.02705965863912962</v>
+      </c>
+      <c r="AV23">
+        <v>2</v>
+      </c>
+      <c r="AW23">
+        <v>2</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>62</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD23">
-        <v>0.000712641801507349</v>
+        <v>0.02441121759523485</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4701,7 +4929,31 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="BL23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM23">
+        <v>0.0271295233947381</v>
+      </c>
+      <c r="BN23">
+        <v>1</v>
+      </c>
+      <c r="BO23">
+        <v>1</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>1</v>
+      </c>
+      <c r="BR23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4709,7 +4961,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0004248241034480136</v>
+        <v>0.000428827446025821</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4727,13 +4979,37 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24">
+        <v>0.02564433648919588</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>17</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T24">
-        <v>0.0004901084208952781</v>
+        <v>0.0005044416068735692</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4751,13 +5027,37 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC24">
+        <v>0.02687016002075324</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>17</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AL24">
-        <v>0.0005717678710249155</v>
+        <v>0.000608075247707529</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -4775,13 +5075,37 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU24">
+        <v>0.02705491006104251</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>17</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD24">
-        <v>0.0006743212629760475</v>
+        <v>0.02441121759523485</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -4799,7 +5123,31 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="BL24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM24">
+        <v>0.02712258489770619</v>
+      </c>
+      <c r="BN24">
+        <v>1</v>
+      </c>
+      <c r="BO24">
+        <v>1</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>1</v>
+      </c>
+      <c r="BR24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -4807,7 +5155,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0004234795231486698</v>
+        <v>0.0004281550270388606</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4825,13 +5173,37 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25">
+        <v>0.02564433648919588</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>17</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T25">
-        <v>0.0004837216644733945</v>
+        <v>0.000501247616685507</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -4849,13 +5221,37 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC25">
+        <v>0.02687016002075324</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>17</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AL25">
-        <v>0.0005511337348926762</v>
+        <v>0.000608075247707529</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -4873,13 +5269,37 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="AT25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU25">
+        <v>0.02705491006104251</v>
+      </c>
+      <c r="AV25">
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>17</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD25">
-        <v>0.0006743212629760475</v>
+        <v>0.02405756588479337</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -4897,7 +5317,31 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="BL25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM25">
+        <v>0.02706694084469611</v>
+      </c>
+      <c r="BN25">
+        <v>2</v>
+      </c>
+      <c r="BO25">
+        <v>2</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>1</v>
+      </c>
+      <c r="BR25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -4905,7 +5349,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0004214626526996539</v>
+        <v>0.0004281550270388606</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4923,13 +5367,37 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26">
+        <v>0.02563777783536232</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>18</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T26">
-        <v>0.0004741415298405692</v>
+        <v>0.000501247616685507</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -4947,13 +5415,37 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC26">
+        <v>0.02686328785706506</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>18</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AL26">
-        <v>0.0005511337348926762</v>
+        <v>0.0006011958842255489</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -4971,13 +5463,37 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU26">
+        <v>0.02704799064670465</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>18</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BD26">
-        <v>0.0006615477501322803</v>
+        <v>0.02370391417435188</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -4995,7 +5511,31 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="BL26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM26">
+        <v>0.02706013842441907</v>
+      </c>
+      <c r="BN26">
+        <v>1</v>
+      </c>
+      <c r="BO26">
+        <v>1</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>1</v>
+      </c>
+      <c r="BR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5003,7 +5543,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.0004214626526996539</v>
+        <v>0.0004281550270388606</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5021,13 +5561,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27">
+        <v>0.02557874995086034</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>27</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T27">
-        <v>0.0004741415298405692</v>
+        <v>0.000501247616685507</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5045,13 +5609,37 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC27">
+        <v>0.02680143838387152</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>27</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL27">
-        <v>0.0005442556895152631</v>
+        <v>0.0005943165207435689</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5069,19 +5657,43 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU27">
+        <v>0.02698571591766388</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>27</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="BD27">
-        <v>0.0006487742372885131</v>
+        <v>0.02334563767652416</v>
       </c>
       <c r="BE27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG27">
         <v>1</v>
@@ -5093,7 +5705,31 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="BL27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM27">
+        <v>0.02705319992738717</v>
+      </c>
+      <c r="BN27">
+        <v>1</v>
+      </c>
+      <c r="BO27">
+        <v>1</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>1</v>
+      </c>
+      <c r="BR27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5101,7 +5737,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0004207903625499819</v>
+        <v>0.0004274826080519001</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5119,13 +5755,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28">
+        <v>0.02557219129702678</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>28</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T28">
-        <v>0.0004709481516296274</v>
+        <v>0.0004980536264974449</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5143,37 +5803,85 @@
         <v>0</v>
       </c>
       <c r="Z28">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC28">
+        <v>0.02679456622018335</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>28</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL28">
+        <v>0.0005461609763697089</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR28">
         <v>11</v>
       </c>
-      <c r="AK28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL28">
-        <v>0.0005373776441378501</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>12</v>
+      <c r="AT28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU28">
+        <v>0.02697879650332602</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>28</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD28">
-        <v>0.0006487742372885131</v>
+        <v>0.0212283522012615</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5191,7 +5899,31 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="BL28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM28">
+        <v>0.0270391868565685</v>
+      </c>
+      <c r="BN28">
+        <v>2</v>
+      </c>
+      <c r="BO28">
+        <v>2</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>1</v>
+      </c>
+      <c r="BR28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5199,7 +5931,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.00042011807240031</v>
+        <v>0.0004268101890649397</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5217,13 +5949,37 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29">
+        <v>0.02552628072019191</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>35</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T29">
-        <v>0.0004677547734186856</v>
+        <v>0.0004948596363093827</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5241,13 +5997,37 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC29">
+        <v>0.02674646107436614</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>35</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AL29">
-        <v>0.0005373776441378501</v>
+        <v>0.0005392816128877289</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -5267,11 +6047,35 @@
       <c r="AR29">
         <v>12</v>
       </c>
+      <c r="AT29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU29">
+        <v>0.02693036060296098</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>35</v>
+      </c>
       <c r="BC29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD29">
-        <v>0.0006487742372885131</v>
+        <v>0.02087470049082002</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -5290,6 +6094,30 @@
       </c>
       <c r="BJ29">
         <v>12</v>
+      </c>
+      <c r="BL29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM29">
+        <v>0.02700463044816385</v>
+      </c>
+      <c r="BN29">
+        <v>1</v>
+      </c>
+      <c r="BO29">
+        <v>1</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>1</v>
+      </c>
+      <c r="BR29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -5297,7 +6125,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.00042011807240031</v>
+        <v>0.0004221032561562165</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5315,13 +6143,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30">
+        <v>0.0255131634125248</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>37</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T30">
-        <v>0.0004677547734186856</v>
+        <v>0.0004725017049929478</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -5339,13 +6191,37 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC30">
+        <v>0.02673271674698979</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>37</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL30">
-        <v>0.0005373776441378501</v>
+        <v>0.0005392816128877289</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -5365,11 +6241,35 @@
       <c r="AR30">
         <v>12</v>
       </c>
+      <c r="AT30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU30">
+        <v>0.02691652177428526</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>37</v>
+      </c>
       <c r="BC30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD30">
-        <v>0.000636000724444746</v>
+        <v>0.02087470049082002</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -5387,7 +6287,31 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="BL30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM30">
+        <v>0.02699075345410005</v>
+      </c>
+      <c r="BN30">
+        <v>1</v>
+      </c>
+      <c r="BO30">
+        <v>1</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -5395,7 +6319,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.00042011807240031</v>
+        <v>0.000421430837169256</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5415,11 +6339,35 @@
       <c r="H31">
         <v>12</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31">
+        <v>0.02533607975901884</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>64</v>
+      </c>
       <c r="S31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T31">
-        <v>0.0004677547734186856</v>
+        <v>0.0004693077148048857</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -5439,11 +6387,35 @@
       <c r="Z31">
         <v>12</v>
       </c>
+      <c r="AB31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC31">
+        <v>0.02654716832740915</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>64</v>
+      </c>
       <c r="AK31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL31">
-        <v>0.0005304995987604369</v>
+        <v>0.0005186435224417889</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -5461,19 +6433,43 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU31">
+        <v>0.02672969758716297</v>
+      </c>
+      <c r="AV31">
+        <v>1</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>64</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="BD31">
-        <v>0.0006346632655729399</v>
+        <v>0.01981374535949556</v>
       </c>
       <c r="BE31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG31">
         <v>1</v>
@@ -5485,7 +6481,31 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM31">
+        <v>0.02680341403423869</v>
+      </c>
+      <c r="BN31">
+        <v>1</v>
+      </c>
+      <c r="BO31">
+        <v>1</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -5493,7 +6513,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.000419445782250638</v>
+        <v>0.000421430837169256</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -5511,13 +6531,37 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32">
+        <v>0.02487311517084562</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1094</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T32">
-        <v>0.0004645613952077439</v>
+        <v>0.0004693077148048857</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -5535,19 +6579,43 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC32">
+        <v>0.02544074997361342</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>225</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="AL32">
-        <v>0.0005236215533830239</v>
+        <v>0.0004959113809015035</v>
       </c>
       <c r="AM32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO32">
         <v>1</v>
@@ -5559,13 +6627,37 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>14</v>
+        <v>64</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU32">
+        <v>0.0256156718787671</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>225</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BD32">
-        <v>0.0006232272116009788</v>
+        <v>0.01839913851772963</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -5583,15 +6675,39 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="BL32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM32">
+        <v>0.02568631601210241</v>
+      </c>
+      <c r="BN32">
+        <v>1</v>
+      </c>
+      <c r="BO32">
+        <v>1</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:62">
+    <row r="33" spans="1:71">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0004187734921009661</v>
+        <v>0.0004194135802083747</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5609,13 +6725,37 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33">
+        <v>0.02428013649181666</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>225</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T33">
-        <v>0.0004613680169968021</v>
+        <v>0.0004597257442406992</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -5633,13 +6773,37 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC33">
+        <v>0.02504903664338761</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>282</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL33">
-        <v>0.0005236215533830239</v>
+        <v>0.0004911260685138689</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -5657,13 +6821,37 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU33">
+        <v>0.02522126526150894</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>282</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BD33">
-        <v>0.0006232272116009788</v>
+        <v>0.01627722825508073</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -5681,15 +6869,39 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="BL33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM33">
+        <v>0.02529082168128398</v>
+      </c>
+      <c r="BN33">
+        <v>1</v>
+      </c>
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:62">
+    <row r="34" spans="1:71">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0004187734921009661</v>
+        <v>0.0004167239042605329</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -5707,13 +6919,37 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34">
+        <v>0.02390629322330409</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>282</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T34">
-        <v>0.0004613680169968021</v>
+        <v>0.0004469497834884507</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -5731,13 +6967,37 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC34">
+        <v>0.02398385127172092</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>437</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AL34">
-        <v>0.0005236215533830239</v>
+        <v>0.000449849887621989</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -5755,13 +7015,37 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="AT34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU34">
+        <v>0.02414875603914024</v>
+      </c>
+      <c r="AV34">
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <v>1</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>437</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BD34">
-        <v>0.0006232272116009788</v>
+        <v>0.01556992483419776</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -5779,15 +7063,39 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="BL34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM34">
+        <v>0.02421535464133912</v>
+      </c>
+      <c r="BN34">
+        <v>1</v>
+      </c>
+      <c r="BO34">
+        <v>1</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>437</v>
       </c>
     </row>
-    <row r="35" spans="1:62">
+    <row r="35" spans="1:71">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.0004187734921009661</v>
+        <v>0.0004126893903387701</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -5805,13 +7113,37 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35">
+        <v>0.02288970187910323</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>437</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T35">
-        <v>0.0004613680169968021</v>
+        <v>0.0004277858423600778</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -5829,13 +7161,37 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC35">
+        <v>0.02276060613522627</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>615</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AL35">
-        <v>0.0005167435080056107</v>
+        <v>0.0004360911606580289</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -5853,13 +7209,37 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU35">
+        <v>0.02291710028700071</v>
+      </c>
+      <c r="AV35">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>615</v>
       </c>
       <c r="BC35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BD35">
-        <v>0.0006104536987572117</v>
+        <v>0.01556992483419776</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -5877,15 +7257,39 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="BL35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM35">
+        <v>0.02298030216966051</v>
+      </c>
+      <c r="BN35">
+        <v>1</v>
+      </c>
+      <c r="BO35">
+        <v>1</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>615</v>
       </c>
     </row>
-    <row r="36" spans="1:62">
+    <row r="36" spans="1:71">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0004181012019512941</v>
+        <v>0.0004113445523648493</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -5903,13 +7307,37 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36">
+        <v>0.02274412522149023</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>779</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T36">
-        <v>0.0004581746387858602</v>
+        <v>0.0004213978619839535</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -5927,13 +7355,37 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC36">
+        <v>0.02218300744583142</v>
+      </c>
+      <c r="AD36">
+        <v>2</v>
+      </c>
+      <c r="AE36">
+        <v>2</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>779</v>
       </c>
       <c r="AK36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AL36">
-        <v>0.0004961093718733715</v>
+        <v>0.0004360911606580289</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -5951,13 +7403,37 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU36">
+        <v>0.02209843855888218</v>
+      </c>
+      <c r="AV36">
+        <v>2</v>
+      </c>
+      <c r="AW36">
+        <v>2</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>779</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BD36">
-        <v>0.0005721331602259101</v>
+        <v>0.01556992483419776</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -5975,15 +7451,39 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="BL36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM36">
+        <v>0.02206428448469453</v>
+      </c>
+      <c r="BN36">
+        <v>2</v>
+      </c>
+      <c r="BO36">
+        <v>2</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>1</v>
+      </c>
+      <c r="BR36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>779</v>
       </c>
     </row>
-    <row r="37" spans="1:62">
+    <row r="37" spans="1:71">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.0004160843315022783</v>
+        <v>0.0004113445523648493</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6001,13 +7501,37 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37">
+        <v>0.02172226149673063</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>615</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T37">
-        <v>0.0004485945041530349</v>
+        <v>0.0004213978619839535</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6025,13 +7549,37 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC37">
+        <v>0.02111714819498796</v>
+      </c>
+      <c r="AD37">
+        <v>4</v>
+      </c>
+      <c r="AE37">
+        <v>4</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1094</v>
       </c>
       <c r="AK37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AL37">
-        <v>0.0004823532811185453</v>
+        <v>0.0004360911606580289</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -6049,13 +7597,37 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="AT37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU37">
+        <v>0.0205921770694789</v>
+      </c>
+      <c r="AV37">
+        <v>1</v>
+      </c>
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>951</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BD37">
-        <v>0.0005465861345383758</v>
+        <v>0.01486262141331479</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -6073,15 +7645,39 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="BL37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM37">
+        <v>0.02064896716694133</v>
+      </c>
+      <c r="BN37">
+        <v>1</v>
+      </c>
+      <c r="BO37">
+        <v>1</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>951</v>
       </c>
     </row>
-    <row r="38" spans="1:62">
+    <row r="38" spans="1:71">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.0004147397512029343</v>
+        <v>0.0004113445523648493</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -6099,13 +7695,37 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38">
+        <v>0.01951855380865651</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>951</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="T38">
-        <v>0.0004422077477311513</v>
+        <v>0.0004213978619839535</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -6123,13 +7743,37 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC38">
+        <v>0.02045155913600042</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>951</v>
       </c>
       <c r="AK38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AL38">
-        <v>0.0004617191449863061</v>
+        <v>0.000422332433694069</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -6147,19 +7791,43 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU38">
+        <v>0.02056449941212745</v>
+      </c>
+      <c r="AV38">
+        <v>1</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>955</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="BD38">
-        <v>0.0005082655960070744</v>
+        <v>0.0137970414946041</v>
       </c>
       <c r="BE38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG38">
         <v>1</v>
@@ -6171,15 +7839,39 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="BL38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM38">
+        <v>0.02062121317881371</v>
+      </c>
+      <c r="BN38">
+        <v>1</v>
+      </c>
+      <c r="BO38">
+        <v>1</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>955</v>
       </c>
     </row>
-    <row r="39" spans="1:62">
+    <row r="39" spans="1:71">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0004127228807539184</v>
+        <v>0.0004099997143909284</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -6197,13 +7889,37 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39">
+        <v>0.01949231919332229</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>955</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="T39">
-        <v>0.0004326276130983259</v>
+        <v>0.0004150098816078293</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -6221,13 +7937,37 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC39">
+        <v>0.02042407048124773</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>955</v>
       </c>
       <c r="AK39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AL39">
-        <v>0.000454841099608893</v>
+        <v>0.000387935616284169</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -6245,13 +7985,37 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="AT39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU39">
+        <v>0.02055106748903733</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>4</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>1094</v>
       </c>
       <c r="BC39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="BD39">
-        <v>0.0004954920831633071</v>
+        <v>0.01309436286110737</v>
       </c>
       <c r="BE39">
         <v>1</v>
@@ -6269,15 +8033,39 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="BL39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM39">
+        <v>0.02032244957617732</v>
+      </c>
+      <c r="BN39">
+        <v>4</v>
+      </c>
+      <c r="BO39">
+        <v>4</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS39">
+        <v>1094</v>
       </c>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:71">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0004120505906042465</v>
+        <v>0.0004066376194561261</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -6295,13 +8083,37 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40">
+        <v>0.01890204034830244</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1045</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="T40">
-        <v>0.0004294342348873841</v>
+        <v>0.0003990399306675185</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -6319,19 +8131,43 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC40">
+        <v>0.01980557574931223</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1045</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="AL40">
-        <v>0.0004342069634766537</v>
+        <v>0.0003218332427576581</v>
       </c>
       <c r="AM40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO40">
         <v>1</v>
@@ -6343,13 +8179,37 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="AT40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU40">
+        <v>0.01994175212171983</v>
+      </c>
+      <c r="AV40">
+        <v>1</v>
+      </c>
+      <c r="AW40">
+        <v>1</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>1045</v>
       </c>
       <c r="BC40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="BD40">
-        <v>0.0004571715446320057</v>
+        <v>0.008850542335809571</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -6367,15 +8227,39 @@
         <v>0</v>
       </c>
       <c r="BJ40">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="BL40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM40">
+        <v>0.0199967484459425</v>
+      </c>
+      <c r="BN40">
+        <v>1</v>
+      </c>
+      <c r="BO40">
+        <v>1</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+      <c r="BQ40">
+        <v>1</v>
+      </c>
+      <c r="BR40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS40">
+        <v>1045</v>
       </c>
     </row>
-    <row r="41" spans="1:62">
+    <row r="41" spans="1:71">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.0004100337201552306</v>
+        <v>0.0003985685916126007</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -6393,13 +8277,37 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41">
+        <v>0.007476865370251488</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>2787</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="T41">
-        <v>0.0004198541002545587</v>
+        <v>0.0003607120484107729</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -6417,19 +8325,43 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC41">
+        <v>0.007834266604516287</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>2787</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="AL41">
-        <v>0.0004105788570055225</v>
+        <v>0.000305383254500409</v>
       </c>
       <c r="AM41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO41">
         <v>1</v>
@@ -6441,19 +8373,43 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="AT41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU41">
+        <v>0.007888132345163289</v>
+      </c>
+      <c r="AV41">
+        <v>1</v>
+      </c>
+      <c r="AW41">
+        <v>1</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>2787</v>
       </c>
       <c r="BC41" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="BD41">
-        <v>0.0003677569547256355</v>
+        <v>0</v>
       </c>
       <c r="BE41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG41">
         <v>1</v>
@@ -6465,105 +8421,129 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>34</v>
+        <v>135</v>
+      </c>
+      <c r="BL41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM41">
+        <v>0.00790988661636865</v>
+      </c>
+      <c r="BN41">
+        <v>1</v>
+      </c>
+      <c r="BO41">
+        <v>1</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>1</v>
+      </c>
+      <c r="BR41" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS41">
+        <v>2787</v>
       </c>
     </row>
-    <row r="42" spans="1:62">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42">
-        <v>0.0004053276891075269</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>34</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T42">
-        <v>0.0003975004527779662</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>34</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL42">
-        <v>0.0003860606458347621</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>34</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD42">
-        <v>0.0002386843674161577</v>
-      </c>
-      <c r="BE42">
-        <v>2</v>
-      </c>
-      <c r="BF42">
-        <v>2</v>
-      </c>
-      <c r="BG42">
-        <v>1</v>
-      </c>
-      <c r="BH42">
-        <v>0</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>76</v>
+    <row r="42" spans="1:71">
+      <c r="J42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>3927</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>3927</v>
+      </c>
+      <c r="AT42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>1</v>
+      </c>
+      <c r="AW42">
+        <v>1</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>1</v>
+      </c>
+      <c r="AZ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>3927</v>
+      </c>
+      <c r="BL42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>1</v>
+      </c>
+      <c r="BO42">
+        <v>1</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+      <c r="BQ42">
+        <v>1</v>
+      </c>
+      <c r="BR42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS42">
+        <v>3927</v>
       </c>
     </row>
   </sheetData>
